--- a/tut05/output/0501EE06.xlsx
+++ b/tut05/output/0501EE06.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.040816326530612</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>7.545454545454546</v>
+        <v>7.55</v>
       </c>
       <c r="D6" t="n">
-        <v>7.826086956521739</v>
+        <v>7.83</v>
       </c>
       <c r="E6" t="n">
-        <v>8.282608695652174</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>8.307692307692308</v>
+        <v>8.31</v>
       </c>
       <c r="G6" t="n">
         <v>7.45</v>
       </c>
       <c r="H6" t="n">
-        <v>8.023255813953488</v>
+        <v>8.02</v>
       </c>
       <c r="I6" t="n">
-        <v>7.421052631578948</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.040816326530612</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>7.806451612903226</v>
+        <v>7.81</v>
       </c>
       <c r="D8" t="n">
-        <v>7.81294964028777</v>
+        <v>7.81</v>
       </c>
       <c r="E8" t="n">
-        <v>7.92972972972973</v>
+        <v>7.93</v>
       </c>
       <c r="F8" t="n">
-        <v>7.995535714285714</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>7.912878787878788</v>
+        <v>7.91</v>
       </c>
       <c r="H8" t="n">
-        <v>7.928338762214984</v>
+        <v>7.93</v>
       </c>
       <c r="I8" t="n">
-        <v>7.872463768115942</v>
+        <v>7.87</v>
       </c>
     </row>
   </sheetData>
